--- a/ggd/外包/機上盒管理功能0116-2.xlsx
+++ b/ggd/外包/機上盒管理功能0116-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\ggd\ggd\外包\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <r>
       <rPr>
@@ -3632,6 +3632,38 @@
   <si>
     <t>1.推播是指會發送一次嗎?
 2.會一次推多筆嗎?</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>頻道是全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的，應該就不用去設定群組吧?</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3813,14 +3845,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4101,7 +4133,7 @@
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -4210,7 +4242,7 @@
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>92</v>
       </c>
       <c r="E5" s="5"/>
@@ -4221,7 +4253,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="99">
+    <row r="6" spans="1:11" ht="82.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -4238,7 +4270,7 @@
       <c r="F6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>93</v>
       </c>
       <c r="H6" s="1"/>
@@ -4294,7 +4326,9 @@
       <c r="C9" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="1"/>
@@ -4322,7 +4356,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="181.5">
+    <row r="11" spans="1:11" ht="115.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -4415,7 +4449,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="33">
+    <row r="16" spans="1:11" ht="16.5">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -4438,7 +4472,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="99">
+    <row r="17" spans="1:11" ht="82.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>32</v>
@@ -5633,11 +5667,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="13" t="s">
@@ -5662,11 +5696,11 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="13" t="s">

--- a/ggd/外包/機上盒管理功能0116-2.xlsx
+++ b/ggd/外包/機上盒管理功能0116-2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <r>
       <rPr>
@@ -3664,6 +3664,10 @@
       </rPr>
       <t>的，應該就不用去設定群組吧?</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能類別是?</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3799,7 +3803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3853,6 +3857,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4132,8 +4139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -4144,7 +4151,7 @@
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.25" style="12" customWidth="1"/>
     <col min="6" max="6" width="26.625" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4186,7 +4193,9 @@
       <c r="F2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
